--- a/data/trans_bre/P24_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,3</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>24,69%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>255,64%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>8.090034134328592</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.142237832811512</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.353295782289161</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.56732266695352</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.200424601066066</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.969333620428439</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2349215432394849</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.671798530228987</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 14,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 11,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 7,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>15,22; 36,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 374,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 263,88</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-18,76; 103,23</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>100,85; 624,7</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.5184566441966942</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4664979287762045</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.428359032220959</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>15.34777510095572</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.05836539690729815</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.02073869580976082</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2048231373501578</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>1.069345366993977</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.47030256644068</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.61306972708059</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.037678711823231</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>36.43822405940762</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>4.04890012499957</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.7185819461993</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.061727692644952</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.329773948338322</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>194,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>136,83%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>211,76%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>97,63%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 11,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 8,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 10,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 13,94</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>52,66; 493,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>44,35; 267,63</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>78,37; 441,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>31,88; 206,87</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>6.321344944478385</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.034093557412145</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.626416071629057</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.29048722598918</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.943015487382854</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.546605548425792</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.140491215569424</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.9529651636428478</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>206,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>114,19%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>44,07%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.036602263106762</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.007180999528589</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.895908777484483</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.69810105195259</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.5033772839027145</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5594476318512738</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.769468707532337</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2991138626259349</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 8,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 6,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 2,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 9,64</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>24,89; 726,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>11,94; 330,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 90,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 153,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.34038601394803</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.822238462327665</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.05642174692913</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.48338643273305</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>4.796429382279876</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.958225783872855</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.236042620522501</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.05150259012321</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,31</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>409,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>69,4%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>93,01%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.295293668441616</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.845814322689373</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3112242668311803</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.095781811549115</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>2.367209231925308</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.217781173713367</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.0684501641075544</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4552213133674939</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 11,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 9,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 10,66</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>172,48; 912,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 189,66</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>18,85; 232,12</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.029949662159542</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7945605339995505</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.575319725144938</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7424673033970618</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.3691246269626761</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1469116455478576</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4092566467222455</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.08145311400789891</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.988429182807405</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.814446554299784</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.009170195268416</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.557460102329756</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>8.175129404438669</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.380135671610495</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.9861275528869884</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.523578312885462</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,84</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>238,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>101,9%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>75,36%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>119,51%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 9,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 6,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 5,76</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 12,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>131,93; 387,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>52,62; 172,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>27,98; 140,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>70,46; 185,81</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.39705307954386</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.392361859949588</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.810768830127979</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.19049733933147</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>1.853006405287566</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.298979500767966</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7609593154412462</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.247864731463516</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.722918819919899</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.570316291830063</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.673033173602589</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.491151255051888</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.8405069648184338</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.7258411074116972</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.273110382079461</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.6522003925643181</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.234723180019119</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.512747256767613</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.723660518908705</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.88445211652032</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>3.567696664569384</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.277454902860997</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.376528215809146</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.969200632460999</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
